--- a/7_eval_compareFastResponse/eval/conversation_17488_output_eval.xlsx
+++ b/7_eval_compareFastResponse/eval/conversation_17488_output_eval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,57 +458,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
+          <t>Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Haha, tớ cũng thích cách học theo nhịp!</t>
+          <t>Great! Let's start! 🚀</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Great! Let's go! 😊</t>
+          <t>Okay, let's go! Câu đầu tiên là "Hello, how are you?" Nói theo nhịp như hát nha!</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. "}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Let me try! I'll listen first, then follow the rhythm.</t>
+          <t>Great job! Now let's try the next part together.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -519,399 +523,61 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Okay, I'll do that. Just wait for the message.</t>
+          <t>Tuyệt vời! Cậu đã làm được rồi! Mình cùng nhau tiếp theo nha!</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cậu nói lại cùng tớ nha.</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chào bạn! 🌟 Mình ở đây sẵn sàng giúp đỡ nhé!</t>
+          <t>Tớ biết cậu đang cố gắng hết sức! Cứ làm theo nhịp mình nha!</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cậu nói lại cùng tớ nha.</t>
+          <t xml:space="preserve">Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Okay, I understand. Let me try to process this. The user wants me to act as QuickReact, which means I need to detect the emotion in the latest message and respond in the same language, either English or Vietnamese. The response should be 1-8 words, under 60 characters, friendly and informal, matching the emotion. If the user is sad, I should soothe them; if happy, cheer them up; if worried, reassure them. Emojis or exclamation marks are allowed. The output should only be that text, nothing else.
-First, I need to check the latest message the user sent. But wait, in the current context, there's no message provided. The user just gave me the instructions. So maybe this is a test case. Since there's no message, I can't detect the emotion. But the user might be expecting me to respond based on some previous message that's not shown here. Alternatively, maybe this is a scenario where I need to respond to a hypothetical message.
-Wait, the user might be testing if I can handle the instructions correctly. Since there's no message, I should probably respond with a placeholder or a message indicating that there's no message to process. But according to the instructions, I should only output the text that matches the emotion. However, without a message, I can't know the emotion. So maybe the correct response is to ask for the message? But the user said to output only that text, not to answer the question. Hmm.
-Alternatively, maybe the user is expecting me to generate a response based on the instructions, but without a specific message, I can't. So perhaps the correct approach is to respond with a generic message, like "No message received." But the user said to keep it short and friendly, so maybe "No message to react to." But that's not in the same language as the latest message. Wait, the latest message is in English, so the response should be in English. But there's no message. So I'm confused.
-Wait, maybe the user is testing if I can follow the instructions even without a message. In that case, the correct response would be to acknowledge that there's no message, but according to the instructions, I should only output the text that matches the emotion. Since there's no message, I can't detect the emotion. So perhaps the correct response is to say "No message to react to." But that's 5 words, under 60 characters, in English. That fits the criteria. So I'll go with that.
-&lt;/think&gt;
-No message to react to.</t>
+          <t>Cậu làm rất tốt! Bài hát kết thúc rồi. Tớ rất tự hào về cậu! Chúc cậu có một ngày thật vui vẻ! 😊</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Không sao đâu, mình sẽ giúp cậu nhớ lại nhé! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
+          <t>Nào, nói lại với tớ!</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Okay, I'm here to help. What's on your mind? 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! "}]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tớ hiểu, đừng lo! Tớ ở đây cho cậu! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Nào, nói lại với tớ!</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>I'm here for you. 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>So sweet! 💖</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Chào lại! Cảm ơn cậu đã quay lại! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cậu nhớ nhịp rồi đúng không? Cùng nói nào!</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Okay, I'm ready. Just send me the message and I'll respond in the same language, keeping it short and friendly. Let me know when you're ready!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Chào cậu! Mình đang chờ cậu nhé! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tinh thần học tập là huy chương vàng thật nhé! Mình cũng có lúc mệt, đói, nhưng nhớ nhé, mình vẫn tiếp tục đi thôi! 🌟</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Giờ thì cậu nhại theo tớ nha!</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Okay, I'm ready. Just send me the message and I'll respond instantly with the right emotion in the same language, keeping it short and friendly. Let me know when you're ready!</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": " Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Okay, let's see. The user sent "[NEXT]" after my previous response. I need to figure out the emotion here. The message is pretty short and could be indicating they want the next part of the conversation. Since there's no explicit emotion, maybe it's neutral or slightly expecting. My role is to detect the emotion in the latest message, which is "NEXT". 
-Hmm, "NEXT" could be a signal for continuation, so maybe the user is expecting more. But since there's no clear emotion, I should default to a neutral response. The instructions say to reply in the same language as the user's message. The user's message is in English, so I should respond in English. 
-The guidelines mention using 1-8 words, friendly and informal. Maybe something like "Continue?" or "Next?" But the user might want to keep the conversation flowing. Alternatively, since the user might be testing or moving to the next step, a simple "Next!" could work. But I need to make sure it's friendly. 
-Wait, the user's previous message was in Vietnamese, but the current message is in English. The user might be switching languages. However, the instruction says to reply in the same language as the latest message. The latest message is "NEXT" in English, so I should respond in English. 
-But the user's initial message was in Vietnamese. Maybe they are alternating. However, the system message says to detect the emotion in the latest message and reply in its same language. Since "NEXT" is in English, the response should be in English. 
-So, the correct approach is to respond in English with a brief, friendly reply. Maybe "Next step?" or "Continue?" to keep it open-ended. But the user might just want to move forward. So, the simplest response is "Next!" to acknowledge and encourage continuation.
-&lt;/think&gt;
-Next! 😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Đúng rồi! Cảm ơn cậu đã cố gắng! 💪✨</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cùng nói lại với tớ nào!</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>I'm here for you. 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Không sao đâu, mình sẽ giúp cậu nhớ lại nhé! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Okay, let's tackle this. The user sent "NEXT" after my previous response. I need to detect the emotion in "NEXT" and respond in the same language, English or Vietnamese. The instruction says to use 1-8 words, friendly and informal, matching the emotion. 
-First, "NEXT" is a neutral word, but in some contexts, it can imply moving forward, which might be positive or neutral. However, since the user is continuing the conversation, maybe they're expecting a transition. The system message says to reply in the same language as the latest message. The latest message was "NEXT", which is English, so the response should be in English.
-The user's previous message was "Cùng nói lại với tớ nào!" which is Vietnamese for "Let's talk again with me!" So the user might be switching between languages. But the latest message is "NEXT" in English, so the response should be in English. 
-Now, the emotion in "NEXT" is neutral. But the system says to respond with a friendly tone that mirrors the feeling. Since it's neutral, maybe a simple acknowledgment. The user might be moving to the next part of the conversation, so a response like "Next up?" or "Continuing..." but within the word limit. 
-The example given in the system message was "Cùng nói lại với tớ nào!" which was Vietnamese. The assistant's response was "Okay, let's tackle this." So the assistant is supposed to reply in the same language as the latest message. Since the latest message is "NEXT" (English), the response should be in English.
-The user might be testing the system's ability to switch languages. The assistant should reply in English, keeping it short and friendly. The response should be 1-8 words, so maybe "Next up?" or "Continuing..." but the example in the system message used "Okay, let's tackle this." which is more of a transition. 
-Wait, the user might be expecting a quick reply that's friendly and acknowledges the next step. So "Next up?" is a possibility. But the system says to use 1-8 words. "Next up?" is 4 words. Alternatively, "Continuing..." is 3 words. But maybe the system expects a more specific response. 
-Alternatively, since the user's previous message was in Vietnamese, maybe they're switching back, but the latest message is English. The system says to respond in the same language as the latest message. So the response should be in English. 
-Therefore, the correct response is in English, short, friendly, and acknowledges the next step. The example given in the system message for the previous interaction was "Okay, let's tackle this." So perhaps the assistant is supposed to reply in a similar fashion. 
-But the user's latest message is "NEXT", so the assistant should respond with something like "Next up?" or "Continuing..." but in the same language. Since the user might be moving forward, the response should be neutral but friendly. 
-So the final answer would be "Next up?" or "Continuing..." but within the word limit. Let's check the example again. The user's message was "NEXT", and the assistant's response was "Okay, let's tackle this." So maybe the assistant is supposed to reply in the same language as the latest message, which is English, and the response is in English. 
-Therefore, the correct response is "Next up?" or something similar. But the system message says to use 1-8 words. "Next up?" is 4 words. Alternatively, "Continuing..." is 3 words. 
-But the example given by the user in the system message was "Okay, let's tackle this." which is 6 words. So maybe the assistant is supposed to reply in the same language, and the response should be in English. 
-Thus, the answer is "Next up?" or "Continuing..." but the exact response depends on the context. However, since the user's latest message is "NEXT", the assistant should respond with something that acknowledges moving forward, hence "Next up?" is appropriate.
-&lt;/think&gt;
-Next up?</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Không sao đâu, mình sẽ giúp cậu nhớ lại nhé! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Mình hiểu, đừng lo, mình ở đây nhé!</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>I'm here for you. 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha! </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Let's go! 🎶😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha! "}]</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Tốt! Mình đón tiếp bài hát này nhé! 🎵</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào! </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>I'm here for you. 💙</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào! "}]</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Chiều hôm nay cũng rất đẹp nhé! 🌅</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Nào, lặp lại cùng tớ nhé!</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Okay, I'm ready. Just send me the message and I'll react instantly.</t>
+          <t>Great! Let's start! Chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi.</t>
         </is>
       </c>
     </row>
